--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Logo</t>
   </si>
@@ -200,13 +200,28 @@
   </si>
   <si>
     <t>Informacija ali MP uporablja svoj operativni token &amp; ime slednjega</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>link do spletne strani</t>
+  </si>
+  <si>
+    <t>https://opensea.io/</t>
+  </si>
+  <si>
+    <t>https://cargo.build/</t>
+  </si>
+  <si>
+    <t>https://ethernity.io/marketplace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -234,6 +249,10 @@
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,6 +297,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -516,10 +538,10 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -755,7 +777,29 @@
         <v>62</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C23"/>
+    <hyperlink r:id="rId2" ref="D23"/>
+    <hyperlink r:id="rId3" ref="E23"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="List1" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="List2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Logo</t>
   </si>
@@ -34,6 +35,27 @@
     <t>Ethernity</t>
   </si>
   <si>
+    <t>Crypto NFT</t>
+  </si>
+  <si>
+    <t>Rarible</t>
+  </si>
+  <si>
+    <t>Mintbase</t>
+  </si>
+  <si>
+    <t>Mintable</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Namen NFT-jev na predmetnem MP-ju</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
     <t>Chain</t>
   </si>
   <si>
@@ -46,6 +68,9 @@
     <t>Ethereum, xDai, Polygon</t>
   </si>
   <si>
+    <t>Crypto.com Chain</t>
+  </si>
+  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -58,6 +83,12 @@
     <t>ERC-721, ERC-2309</t>
   </si>
   <si>
+    <t>Unkonown</t>
+  </si>
+  <si>
+    <t>ERC-721, ERC 1155</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
@@ -70,6 +101,12 @@
     <t>Image, Audio, Video, and 3D files</t>
   </si>
   <si>
+    <t>Sports/Athletes, Pop Culture, Visual Arts, Other</t>
+  </si>
+  <si>
+    <t>Image, Audio, Video</t>
+  </si>
+  <si>
     <t>Operations</t>
   </si>
   <si>
@@ -82,6 +119,9 @@
     <t>Mint/Create, Buy, Sell, Manage</t>
   </si>
   <si>
+    <t>Mint/Create, Buy, Sell</t>
+  </si>
+  <si>
     <t>Service Fee</t>
   </si>
   <si>
@@ -100,6 +140,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Login Type</t>
   </si>
   <si>
@@ -109,6 +152,12 @@
     <t>Metamask</t>
   </si>
   <si>
+    <t>Email/Pass</t>
+  </si>
+  <si>
+    <t>Metamask, Formatic, Coinbase Wallet, WalletConnect, MyEtherWallet, Torus</t>
+  </si>
+  <si>
     <t>Wallets</t>
   </si>
   <si>
@@ -133,6 +182,9 @@
     <t>JPG, PNG, GIF, SWG, MP4, ...</t>
   </si>
   <si>
+    <t>PNG, GIF, WEBP, MP4, MP3</t>
+  </si>
+  <si>
     <t>Max. File Size</t>
   </si>
   <si>
@@ -142,6 +194,9 @@
     <t>100 Mb</t>
   </si>
   <si>
+    <t>30 Mb</t>
+  </si>
+  <si>
     <t>External Link</t>
   </si>
   <si>
@@ -161,6 +216,9 @@
   </si>
   <si>
     <t>Up to 15%</t>
+  </si>
+  <si>
+    <t>10 - 30%</t>
   </si>
   <si>
     <t>Split Royalties</t>
@@ -227,10 +285,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
-      <sz val="6.0"/>
-    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -239,6 +293,10 @@
       <sz val="6.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="6.0"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -268,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -284,19 +342,22 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -311,6 +372,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -528,14 +593,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -544,262 +609,371 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.025</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
+      <c r="A17" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
+      <c r="A20" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
+      <c r="A21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
+      <c r="A22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>67</v>
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C23"/>
-    <hyperlink r:id="rId2" ref="D23"/>
-    <hyperlink r:id="rId3" ref="E23"/>
+    <hyperlink r:id="rId1" ref="C24"/>
+    <hyperlink r:id="rId2" ref="D24"/>
+    <hyperlink r:id="rId3" ref="E24"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>